--- a/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="341">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>9/7,28,29,30/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1939,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1982,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2046,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2106,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2172,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2235,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2333,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2392,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2457,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2500,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2575,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2761,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2827,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2885,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2951,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3007,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3082,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3125,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3191,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3247,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3345,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3408,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3474,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K602" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K604" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
@@ -3849,12 +3852,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K602"/>
+  <dimension ref="A2:K604"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4215" topLeftCell="A487" activePane="bottomLeft"/>
       <selection activeCell="Q8" sqref="Q8"/>
-      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
+      <selection pane="bottomLeft" activeCell="I503" sqref="I503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4018,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.827000000000055</v>
+        <v>73.327000000000055</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4025,7 +4028,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>203.45799999999997</v>
+        <v>202.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15294,25 +15297,33 @@
       <c r="A500" s="40">
         <v>45200</v>
       </c>
-      <c r="B500" s="20"/>
-      <c r="C500" s="13"/>
+      <c r="B500" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H500" s="39"/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H500" s="39">
+        <v>1</v>
+      </c>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
-      <c r="K500" s="20"/>
+      <c r="K500" s="48">
+        <v>45208</v>
+      </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B501" s="20"/>
+      <c r="A501" s="40"/>
+      <c r="B501" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
@@ -15321,23 +15332,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H501" s="39"/>
+      <c r="H501" s="39">
+        <v>1</v>
+      </c>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="20"/>
+      <c r="K501" s="48">
+        <v>45215</v>
+      </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="13"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
@@ -15346,9 +15363,11 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B503" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
@@ -15357,14 +15376,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H503" s="39"/>
+      <c r="H503" s="39">
+        <v>1</v>
+      </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="40">
-        <v>45323</v>
+      <c r="A504" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15382,7 +15403,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15400,7 +15421,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15418,7 +15439,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15436,7 +15457,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15454,7 +15475,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15472,7 +15493,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15490,7 +15511,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15508,7 +15529,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15526,7 +15547,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15544,7 +15565,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15562,7 +15583,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15580,7 +15601,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15598,7 +15619,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15616,7 +15637,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15634,7 +15655,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15652,7 +15673,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15670,7 +15691,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15688,7 +15709,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15706,7 +15727,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15724,7 +15745,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15742,7 +15763,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15760,7 +15781,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15778,7 +15799,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15796,7 +15817,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15814,7 +15835,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15832,7 +15853,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15850,7 +15871,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15868,7 +15889,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15886,7 +15907,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15904,7 +15925,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15922,7 +15943,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15940,7 +15961,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15958,7 +15979,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15976,7 +15997,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15994,7 +16015,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16012,7 +16033,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16030,7 +16051,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16048,7 +16069,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16066,7 +16087,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16084,7 +16105,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16102,7 +16123,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16120,7 +16141,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16138,7 +16159,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16156,7 +16177,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16174,7 +16195,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16192,7 +16213,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16210,7 +16231,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16228,7 +16249,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16246,7 +16267,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16264,7 +16285,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16282,7 +16303,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16300,7 +16321,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16318,7 +16339,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16336,7 +16357,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16354,7 +16375,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16372,7 +16393,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16390,7 +16411,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16408,7 +16429,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16426,7 +16447,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16444,7 +16465,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16462,7 +16483,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16480,7 +16501,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16498,7 +16519,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16516,7 +16537,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16534,7 +16555,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16552,7 +16573,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16570,7 +16591,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16588,7 +16609,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16606,7 +16627,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16624,7 +16645,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16641,7 +16662,9 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <v>47423</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -16657,7 +16680,9 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>47453</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -17073,20 +17098,52 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="52"/>
-      <c r="B602" s="15"/>
-      <c r="C602" s="41"/>
-      <c r="D602" s="42"/>
+      <c r="A602" s="40"/>
+      <c r="B602" s="20"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="39"/>
       <c r="E602" s="9"/>
-      <c r="F602" s="15"/>
-      <c r="G602" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H602" s="42"/>
+      <c r="F602" s="20"/>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H602" s="39"/>
       <c r="I602" s="9"/>
-      <c r="J602" s="12"/>
-      <c r="K602" s="15"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="40"/>
+      <c r="B603" s="20"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H603" s="39"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="52"/>
+      <c r="B604" s="15"/>
+      <c r="C604" s="41"/>
+      <c r="D604" s="42"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="15"/>
+      <c r="G604" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="42"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="12"/>
+      <c r="K604" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
